--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,27 +43,27 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -76,142 +76,127 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>health</t>
+    <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
-    <t>social</t>
+    <t>supermarket</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>grocery</t>
+    <t>19</t>
   </si>
   <si>
     <t>san</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>co</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -569,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -580,7 +565,7 @@
         <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -680,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -730,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -738,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7054794520547946</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C5">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -780,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -788,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5066666666666667</v>
+        <v>0.4476744186046512</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K6">
-        <v>0.8780487804878049</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L6">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="M6">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -830,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -862,13 +847,13 @@
         <v>24</v>
       </c>
       <c r="K7">
-        <v>0.8723404255319149</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -880,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -888,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4108527131782946</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -906,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K8">
-        <v>0.8482142857142857</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -930,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -938,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3636363636363636</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>0.8359375</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -980,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,37 +973,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3404255319148936</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="C10">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K10">
-        <v>0.823943661971831</v>
+        <v>0.8046875</v>
       </c>
       <c r="L10">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="M10">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1038,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2301587301587301</v>
+        <v>0.25</v>
       </c>
       <c r="C11">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1056,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1080,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1088,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1554959785522788</v>
+        <v>0.1474530831099196</v>
       </c>
       <c r="C12">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1106,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1130,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1138,37 +1123,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008664955070603338</v>
+        <v>0.008922880815806247</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="E13">
-        <v>0.76</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F13">
-        <v>0.24</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3089</v>
+        <v>3110</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1180,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1188,13 +1173,13 @@
         <v>31</v>
       </c>
       <c r="K14">
-        <v>0.7553191489361702</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L14">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="M14">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,13 +1199,13 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.7169811320754716</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L15">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1232,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1240,25 +1225,25 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.7142857142857143</v>
+        <v>0.71875</v>
       </c>
       <c r="L16">
+        <v>115</v>
+      </c>
+      <c r="M16">
+        <v>115</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>45</v>
-      </c>
-      <c r="M16">
-        <v>45</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1266,13 +1251,13 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.70625</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="M17">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1284,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1318,13 +1303,13 @@
         <v>36</v>
       </c>
       <c r="K19">
-        <v>0.66</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1336,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1344,13 +1329,13 @@
         <v>37</v>
       </c>
       <c r="K20">
-        <v>0.6449086161879896</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L20">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1362,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1370,13 +1355,13 @@
         <v>38</v>
       </c>
       <c r="K21">
-        <v>0.5882352941176471</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>200</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1388,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>140</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1396,13 +1381,13 @@
         <v>39</v>
       </c>
       <c r="K22">
-        <v>0.5796610169491525</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="M22">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1414,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>124</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1422,13 +1407,13 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>0.5730337078651685</v>
+        <v>0.5970588235294118</v>
       </c>
       <c r="L23">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1440,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>38</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1448,13 +1433,13 @@
         <v>41</v>
       </c>
       <c r="K24">
-        <v>0.5606694560669456</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L24">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="M24">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1466,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1474,13 +1459,13 @@
         <v>42</v>
       </c>
       <c r="K25">
-        <v>0.5555555555555556</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1492,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1500,13 +1485,13 @@
         <v>43</v>
       </c>
       <c r="K26">
-        <v>0.5384615384615384</v>
+        <v>0.54</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1518,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1526,13 +1511,13 @@
         <v>44</v>
       </c>
       <c r="K27">
-        <v>0.4931506849315068</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="L27">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="M27">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1544,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>37</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1552,13 +1537,13 @@
         <v>45</v>
       </c>
       <c r="K28">
-        <v>0.484375</v>
+        <v>0.5</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1570,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1578,13 +1563,13 @@
         <v>46</v>
       </c>
       <c r="K29">
-        <v>0.4743589743589743</v>
+        <v>0.453125</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1596,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1604,13 +1589,13 @@
         <v>47</v>
       </c>
       <c r="K30">
-        <v>0.4</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1630,25 +1615,25 @@
         <v>48</v>
       </c>
       <c r="K31">
-        <v>0.2153846153846154</v>
+        <v>0.4142857142857143</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M31">
         <v>29</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>102</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1656,13 +1641,13 @@
         <v>49</v>
       </c>
       <c r="K32">
-        <v>0.1802884615384615</v>
+        <v>0.2057416267942584</v>
       </c>
       <c r="L32">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M32">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1674,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1682,13 +1667,13 @@
         <v>50</v>
       </c>
       <c r="K33">
-        <v>0.1779141104294479</v>
+        <v>0.1706730769230769</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="M33">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1700,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>134</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1708,25 +1693,25 @@
         <v>51</v>
       </c>
       <c r="K34">
-        <v>0.1726618705035971</v>
+        <v>0.1263982102908277</v>
       </c>
       <c r="L34">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M34">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="N34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>345</v>
+        <v>781</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1734,25 +1719,25 @@
         <v>52</v>
       </c>
       <c r="K35">
-        <v>0.1588785046728972</v>
+        <v>0.09342560553633218</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>180</v>
+        <v>786</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1760,25 +1745,25 @@
         <v>53</v>
       </c>
       <c r="K36">
-        <v>0.1572327044025157</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>134</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1786,25 +1771,25 @@
         <v>54</v>
       </c>
       <c r="K37">
-        <v>0.1488372093023256</v>
+        <v>0.08453837597330367</v>
       </c>
       <c r="L37">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="M37">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>183</v>
+        <v>823</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1812,13 +1797,13 @@
         <v>55</v>
       </c>
       <c r="K38">
-        <v>0.1152125279642058</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L38">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1830,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>791</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1838,25 +1823,25 @@
         <v>56</v>
       </c>
       <c r="K39">
-        <v>0.1140350877192982</v>
+        <v>0.07561728395061729</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="N39">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O39">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>202</v>
+        <v>599</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1864,25 +1849,25 @@
         <v>57</v>
       </c>
       <c r="K40">
-        <v>0.09480122324159021</v>
+        <v>0.06469760900140648</v>
       </c>
       <c r="L40">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>296</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1890,25 +1875,25 @@
         <v>58</v>
       </c>
       <c r="K41">
-        <v>0.0913312693498452</v>
+        <v>0.05967078189300411</v>
       </c>
       <c r="L41">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>587</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1916,25 +1901,25 @@
         <v>59</v>
       </c>
       <c r="K42">
-        <v>0.08453837597330367</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="L42">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="M42">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>0.85</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>823</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1942,181 +1927,51 @@
         <v>60</v>
       </c>
       <c r="K43">
-        <v>0.07422680412371134</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="L43">
+        <v>28</v>
+      </c>
+      <c r="M43">
         <v>36</v>
       </c>
-      <c r="M43">
-        <v>37</v>
-      </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>449</v>
+        <v>932</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="K44">
-        <v>0.07390300230946882</v>
+        <v>0.01985502678852821</v>
       </c>
       <c r="L44">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M44">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="N44">
-        <v>0.98</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O44">
-        <v>0.02000000000000002</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="45" spans="10:17">
-      <c r="J45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K45">
-        <v>0.06763738844527947</v>
-      </c>
-      <c r="L45">
-        <v>144</v>
-      </c>
-      <c r="M45">
-        <v>158</v>
-      </c>
-      <c r="N45">
-        <v>0.91</v>
-      </c>
-      <c r="O45">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="46" spans="10:17">
-      <c r="J46" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K46">
-        <v>0.04266389177939646</v>
-      </c>
-      <c r="L46">
-        <v>41</v>
-      </c>
-      <c r="M46">
-        <v>48</v>
-      </c>
-      <c r="N46">
-        <v>0.85</v>
-      </c>
-      <c r="O46">
-        <v>0.15</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="47" spans="10:17">
-      <c r="J47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K47">
-        <v>0.03859876743431722</v>
-      </c>
-      <c r="L47">
-        <v>119</v>
-      </c>
-      <c r="M47">
-        <v>143</v>
-      </c>
-      <c r="N47">
-        <v>0.83</v>
-      </c>
-      <c r="O47">
-        <v>0.17</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48">
-        <v>0.02678008821676119</v>
-      </c>
-      <c r="L48">
-        <v>85</v>
-      </c>
-      <c r="M48">
-        <v>112</v>
-      </c>
-      <c r="N48">
-        <v>0.76</v>
-      </c>
-      <c r="O48">
-        <v>0.24</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K49">
-        <v>0.0216076058772688</v>
-      </c>
-      <c r="L49">
-        <v>25</v>
-      </c>
-      <c r="M49">
-        <v>29</v>
-      </c>
-      <c r="N49">
-        <v>0.86</v>
-      </c>
-      <c r="O49">
-        <v>0.14</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>1132</v>
+        <v>3110</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,21 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,94 +70,103 @@
     <t>demand</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>give</t>
   </si>
   <si>
     <t>share</t>
@@ -166,37 +175,49 @@
     <t>online</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>supermarket</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>19</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>toilet</t>
   </si>
   <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -554,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,16 +665,16 @@
         <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7226027397260274</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7222222222222222</v>
+        <v>0.7226027397260274</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4476744186046512</v>
+        <v>0.4341085271317829</v>
       </c>
       <c r="C6">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D6">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4429530201342282</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8309859154929577</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L7">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.4093959731543624</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.8292682926829268</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L8">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="M8">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3386243386243386</v>
+        <v>0.3597883597883598</v>
       </c>
       <c r="C9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.8359375</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3222222222222222</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.25</v>
+        <v>0.257936507936508</v>
       </c>
       <c r="C11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7916666666666666</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,37 +1094,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1474530831099196</v>
+        <v>0.1586021505376344</v>
       </c>
       <c r="C12">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D12">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,37 +1144,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008922880815806247</v>
+        <v>0.009161859518154056</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="E13">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="F13">
-        <v>0.3100000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>3110</v>
+        <v>2920</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7843137254901961</v>
+        <v>0.7625</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,21 +1186,45 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.008030838419530999</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>113</v>
+      </c>
+      <c r="E14">
+        <v>0.78</v>
+      </c>
+      <c r="F14">
+        <v>0.22</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3088</v>
+      </c>
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7619047619047619</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1191,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K15">
-        <v>0.7358490566037735</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="M15">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1217,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K16">
-        <v>0.71875</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1243,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.6914893617021277</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L17">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M17">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1269,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1295,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K19">
-        <v>0.6475195822454308</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L19">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="M19">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1321,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6046511627906976</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1347,21 +1392,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.6657963446475196</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1373,21 +1418,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>18</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1399,21 +1444,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>0.5970588235294118</v>
+        <v>0.64</v>
       </c>
       <c r="L23">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1425,21 +1470,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>137</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>0.559322033898305</v>
+        <v>0.5794117647058824</v>
       </c>
       <c r="L24">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="M24">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1451,21 +1496,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>0.550561797752809</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="M25">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1477,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26">
-        <v>0.54</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1503,21 +1548,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.502092050209205</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="L27">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="M27">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1529,21 +1574,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>119</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.5313807531380753</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1555,21 +1600,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.453125</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1581,21 +1626,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.4246575342465753</v>
+        <v>0.5</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1607,21 +1652,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.4142857142857143</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1633,21 +1678,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32">
-        <v>0.2057416267942584</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L32">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="M32">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1659,47 +1704,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>332</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.1706730769230769</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="L33">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>345</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.1263982102908277</v>
+        <v>0.2009569377990431</v>
       </c>
       <c r="L34">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="M34">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1711,21 +1756,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>781</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.09342560553633218</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="L35">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1737,73 +1782,73 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>786</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.09202453987730061</v>
+        <v>0.1745283018867924</v>
       </c>
       <c r="L36">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>296</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.08453837597330367</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="L37">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M37">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>823</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.08116883116883117</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1815,163 +1860,345 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>283</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.07561728395061729</v>
+        <v>0.1441860465116279</v>
       </c>
       <c r="L39">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="N39">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>599</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.06469760900140648</v>
+        <v>0.1187010078387458</v>
       </c>
       <c r="L40">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="M40">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="N40">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>1995</v>
+        <v>787</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.05967078189300411</v>
+        <v>0.1107692307692308</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>457</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.03626943005181347</v>
+        <v>0.1092783505154639</v>
       </c>
       <c r="L42">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="M42">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="N42">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="O42">
-        <v>0.15</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2976</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>0.02916666666666667</v>
+        <v>0.1043285238623751</v>
       </c>
       <c r="L43">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="M43">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="N43">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>932</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K44">
+        <v>0.09164733178654293</v>
+      </c>
+      <c r="L44">
+        <v>79</v>
+      </c>
+      <c r="M44">
+        <v>84</v>
+      </c>
+      <c r="N44">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O44">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45">
+        <v>0.08771106941838649</v>
+      </c>
+      <c r="L45">
+        <v>187</v>
+      </c>
+      <c r="M45">
+        <v>198</v>
+      </c>
+      <c r="N45">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K46">
+        <v>0.08540372670807453</v>
+      </c>
+      <c r="L46">
+        <v>55</v>
+      </c>
+      <c r="M46">
+        <v>61</v>
+      </c>
+      <c r="N46">
+        <v>0.9</v>
+      </c>
+      <c r="O46">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K44">
-        <v>0.01985502678852821</v>
-      </c>
-      <c r="L44">
-        <v>63</v>
-      </c>
-      <c r="M44">
-        <v>91</v>
-      </c>
-      <c r="N44">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O44">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>3110</v>
+      <c r="K47">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="L47">
+        <v>160</v>
+      </c>
+      <c r="M47">
+        <v>187</v>
+      </c>
+      <c r="N47">
+        <v>0.86</v>
+      </c>
+      <c r="O47">
+        <v>0.14</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48">
+        <v>0.04778761061946903</v>
+      </c>
+      <c r="L48">
+        <v>27</v>
+      </c>
+      <c r="M48">
+        <v>29</v>
+      </c>
+      <c r="N48">
+        <v>0.93</v>
+      </c>
+      <c r="O48">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49">
+        <v>0.03423236514522822</v>
+      </c>
+      <c r="L49">
+        <v>33</v>
+      </c>
+      <c r="M49">
+        <v>37</v>
+      </c>
+      <c r="N49">
+        <v>0.89</v>
+      </c>
+      <c r="O49">
+        <v>0.11</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50">
+        <v>0.03035559410234172</v>
+      </c>
+      <c r="L50">
+        <v>35</v>
+      </c>
+      <c r="M50">
+        <v>43</v>
+      </c>
+      <c r="N50">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O50">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51">
+        <v>0.02770780856423174</v>
+      </c>
+      <c r="L51">
+        <v>88</v>
+      </c>
+      <c r="M51">
+        <v>113</v>
+      </c>
+      <c r="N51">
+        <v>0.78</v>
+      </c>
+      <c r="O51">
+        <v>0.22</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3088</v>
       </c>
     </row>
   </sheetData>
